--- a/fms_data.xlsx
+++ b/fms_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="150">
   <si>
     <t>STT</t>
   </si>
@@ -103,6 +103,33 @@
     <t>TG Tạo Trên FM</t>
   </si>
   <si>
+    <t>4G-TTT072S-HNI</t>
+  </si>
+  <si>
+    <t>UL_TTT093M_HNI</t>
+  </si>
+  <si>
+    <t>3G_QOI086M_HNI</t>
+  </si>
+  <si>
+    <t>3G_STY084S_HNI</t>
+  </si>
+  <si>
+    <t>UL_QOI049M_HNI</t>
+  </si>
+  <si>
+    <t>2G_STY033M_HNI</t>
+  </si>
+  <si>
+    <t>3G_STY033M_HNI</t>
+  </si>
+  <si>
+    <t>4G-STY033M-HNI</t>
+  </si>
+  <si>
+    <t>SR_STY033M_HNI</t>
+  </si>
+  <si>
     <t>2G_PTO019M_HNI</t>
   </si>
   <si>
@@ -112,18 +139,6 @@
     <t>4G-PTO019M-HNI</t>
   </si>
   <si>
-    <t>2G_STY033M_HNI</t>
-  </si>
-  <si>
-    <t>3G_STY033M_HNI</t>
-  </si>
-  <si>
-    <t>4G-STY033M-HNI</t>
-  </si>
-  <si>
-    <t>SR_STY033M_HNI</t>
-  </si>
-  <si>
     <t>UL_STY078M_HNI</t>
   </si>
   <si>
@@ -145,12 +160,33 @@
     <t>4G_PTO019M_HNI</t>
   </si>
   <si>
+    <t>3G_QOI083S_HNI</t>
+  </si>
+  <si>
+    <t>3G_DPG027S_HNI</t>
+  </si>
+  <si>
+    <t>HUU-BANG-GIANG-MAT-SMC-TTT_HNI</t>
+  </si>
+  <si>
+    <t>THACH-HOA-TTT_HNI</t>
+  </si>
+  <si>
+    <t>Thon-Ngoc-Than-xom-Goc-Gao-QOI_HNI</t>
+  </si>
+  <si>
+    <t>KDT-PHU-HA-B4-BT2-SMC-STY_HNI</t>
+  </si>
+  <si>
+    <t>NM-PHU-MY-BAKERY-QOI_HNI</t>
+  </si>
+  <si>
+    <t>Truong-Ngan-Hang-So4-Son-Loc-STY_HNI</t>
+  </si>
+  <si>
     <t>Thon-Bao-Loc-PTO_HNI</t>
   </si>
   <si>
-    <t>Truong-Ngan-Hang-So4-Son-Loc-STY_HNI</t>
-  </si>
-  <si>
     <t>TRUNG-HUNG-NGHIA-PHU-STY_HNI</t>
   </si>
   <si>
@@ -169,10 +205,64 @@
     <t>BD-Phuc-Tho-PTO_HNI</t>
   </si>
   <si>
+    <t>PHUONG-CACH-THON4-SMC-QOI_HNI</t>
+  </si>
+  <si>
+    <t>KDT-TAN-TAY-DO-LK6-41-SMC-DPG_HNI</t>
+  </si>
+  <si>
+    <t>SITE_OOS</t>
+  </si>
+  <si>
+    <t>POWER_AC_EAS</t>
+  </si>
+  <si>
     <t>SITE_OOS_BY_POWER</t>
   </si>
   <si>
-    <t>POWER_AC_EAS</t>
+    <t>07/04/2025 16:16:05</t>
+  </si>
+  <si>
+    <t>07/04/2025 16:57:14</t>
+  </si>
+  <si>
+    <t>07/04/2025 17:01:29</t>
+  </si>
+  <si>
+    <t>07/04/2025 17:40:55</t>
+  </si>
+  <si>
+    <t>07/04/2025 17:52:00</t>
+  </si>
+  <si>
+    <t>07/04/2025 18:05:59</t>
+  </si>
+  <si>
+    <t>07/04/2025 18:08:10</t>
+  </si>
+  <si>
+    <t>07/04/2025 18:14:13</t>
+  </si>
+  <si>
+    <t>07/04/2025 14:30:49</t>
+  </si>
+  <si>
+    <t>07/04/2025 13:16:28</t>
+  </si>
+  <si>
+    <t>07/04/2025 09:56:45</t>
+  </si>
+  <si>
+    <t>07/04/2025 09:56:28</t>
+  </si>
+  <si>
+    <t>07/04/2025 09:56:23</t>
+  </si>
+  <si>
+    <t>07/04/2025 08:28:51</t>
+  </si>
+  <si>
+    <t>07/04/2025 07:50:38</t>
   </si>
   <si>
     <t>07/04/2025 07:42:05</t>
@@ -184,18 +274,6 @@
     <t>07/04/2025 07:41:37</t>
   </si>
   <si>
-    <t>07/04/2025 09:56:45</t>
-  </si>
-  <si>
-    <t>07/04/2025 09:56:28</t>
-  </si>
-  <si>
-    <t>07/04/2025 09:56:23</t>
-  </si>
-  <si>
-    <t>07/04/2025 08:28:51</t>
-  </si>
-  <si>
     <t>07/04/2025 07:41:13</t>
   </si>
   <si>
@@ -217,6 +295,54 @@
     <t>07/04/2025 07:40:44</t>
   </si>
   <si>
+    <t>07/04/2025 01:08:28</t>
+  </si>
+  <si>
+    <t>06/04/2025 21:02:26</t>
+  </si>
+  <si>
+    <t>07/04/2025 16:40:57</t>
+  </si>
+  <si>
+    <t>07/04/2025 17:09:42</t>
+  </si>
+  <si>
+    <t>07/04/2025 17:09:05</t>
+  </si>
+  <si>
+    <t>07/04/2025 17:42:19</t>
+  </si>
+  <si>
+    <t>07/04/2025 17:53:08</t>
+  </si>
+  <si>
+    <t>07/04/2025 18:07:45</t>
+  </si>
+  <si>
+    <t>07/04/2025 18:15:36</t>
+  </si>
+  <si>
+    <t>07/04/2025 14:46:38</t>
+  </si>
+  <si>
+    <t>07/04/2025 13:17:42</t>
+  </si>
+  <si>
+    <t>07/04/2025 10:15:06</t>
+  </si>
+  <si>
+    <t>07/04/2025 10:17:59</t>
+  </si>
+  <si>
+    <t>07/04/2025 10:15:13</t>
+  </si>
+  <si>
+    <t>07/04/2025 10:15:34</t>
+  </si>
+  <si>
+    <t>07/04/2025 08:45:18</t>
+  </si>
+  <si>
     <t>07/04/2025 08:13:49</t>
   </si>
   <si>
@@ -226,18 +352,6 @@
     <t>07/04/2025 08:14:05</t>
   </si>
   <si>
-    <t>07/04/2025 10:15:06</t>
-  </si>
-  <si>
-    <t>07/04/2025 10:17:59</t>
-  </si>
-  <si>
-    <t>07/04/2025 10:15:13</t>
-  </si>
-  <si>
-    <t>07/04/2025 10:15:34</t>
-  </si>
-  <si>
     <t>07/04/2025 08:11:11</t>
   </si>
   <si>
@@ -259,6 +373,39 @@
     <t>07/04/2025 08:14:18</t>
   </si>
   <si>
+    <t>07/04/2025 01:11:53</t>
+  </si>
+  <si>
+    <t>06/04/2025 21:05:57</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
@@ -268,40 +415,55 @@
     <t>32</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>1</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Thạch Thất</t>
+  </si>
+  <si>
+    <t>Quốc Oai</t>
+  </si>
+  <si>
+    <t>Sơn Tây</t>
   </si>
   <si>
     <t>Phúc Thọ</t>
   </si>
   <si>
-    <t>Sơn Tây</t>
+    <t>Đan Phượng</t>
+  </si>
+  <si>
+    <t>Trạm SMC mất điện - 1 - thaodtt - 07/04/2025 16:23:36</t>
+  </si>
+  <si>
+    <t>Trạm SMC mất điện - 1 - thaodtt - 07/04/2025 17:18:49</t>
+  </si>
+  <si>
+    <t>Trạm SMC mất điện - 1 - thaodtt - 07/04/2025 18:12:54</t>
+  </si>
+  <si>
+    <t>Mất điện - 1 - thaodtt - 07/04/2025 10:10:01</t>
   </si>
   <si>
     <t>Mất điện AC - 1 - ngocpt2 - 07/04/2025 08:06:02</t>
   </si>
   <si>
-    <t>Mất điện - 1 - thaodtt - 07/04/2025 10:10:01</t>
+    <t>Mất điện AC - 1 - ngocpt2 - 07/04/2025 01:09:47</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 3</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 1</t>
   </si>
   <si>
     <t>Trạm viễn thông loại 2</t>
-  </si>
-  <si>
-    <t>Trạm viễn thông loại 1</t>
   </si>
 </sst>
 </file>
@@ -668,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +855,7 @@
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="49.7109375" customWidth="1"/>
+    <col min="22" max="22" width="55.7109375" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" customWidth="1"/>
     <col min="24" max="24" width="9.7109375" customWidth="1"/>
     <col min="25" max="25" width="12.7109375" customWidth="1"/>
@@ -802,22 +964,22 @@
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -825,18 +987,18 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -848,25 +1010,25 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -874,18 +1036,18 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -897,25 +1059,25 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -923,18 +1085,16 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -946,25 +1106,25 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -972,18 +1132,16 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -995,25 +1153,25 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1021,18 +1179,16 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="U6" s="2"/>
-      <c r="V6" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
@@ -1044,25 +1200,25 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1070,18 +1226,16 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="U7" s="2"/>
-      <c r="V7" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -1093,42 +1247,40 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -1140,25 +1292,25 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1166,7 +1318,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1175,7 +1327,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -1187,25 +1339,25 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1213,7 +1365,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1222,7 +1374,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
@@ -1234,25 +1386,25 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1260,7 +1412,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1269,7 +1421,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -1281,25 +1433,25 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1307,16 +1459,18 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -1328,25 +1482,25 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1354,16 +1508,18 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="V13" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -1375,25 +1531,25 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1401,16 +1557,18 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -1422,25 +1580,25 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -1448,7 +1606,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -1457,10 +1615,629 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fms_data.xlsx
+++ b/fms_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -103,58 +103,88 @@
     <t>TG Tạo Trên FM</t>
   </si>
   <si>
-    <t>SR_TTT032M_HNI</t>
-  </si>
-  <si>
-    <t>3G_QOI083S_HNI</t>
-  </si>
-  <si>
-    <t>SR_BVI001M_HNI</t>
-  </si>
-  <si>
-    <t>Thon-Dan-Lap-TTT_HNI</t>
-  </si>
-  <si>
-    <t>PHUONG-CACH-THON4-SMC-QOI_HNI</t>
-  </si>
-  <si>
-    <t>BD-Tay-Dang-BVI_HNI</t>
+    <t>SR_BVI027M_HNI</t>
+  </si>
+  <si>
+    <t>UL_BVI133M_HNI</t>
+  </si>
+  <si>
+    <t>UL_DPG058M_HNI</t>
+  </si>
+  <si>
+    <t>2G_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>3G_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>4G-BVI010M-HNI</t>
+  </si>
+  <si>
+    <t>SR_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>Thon-Lien-Tong-BVI_HNI</t>
+  </si>
+  <si>
+    <t>TONG-BAT-THON-TONG-LENH-BVI_HNI</t>
+  </si>
+  <si>
+    <t>KCN-CAU-GAO-DPG_HNI</t>
+  </si>
+  <si>
+    <t>Cam-Thuong-Thon-Van-Minh-BVI_HNI</t>
   </si>
   <si>
     <t>POWER_AC_EAS</t>
   </si>
   <si>
-    <t>SITE_OOS</t>
-  </si>
-  <si>
-    <t>17/04/2025 14:54:48</t>
-  </si>
-  <si>
-    <t>17/04/2025 06:59:22</t>
-  </si>
-  <si>
-    <t>16/04/2025 10:00:24</t>
-  </si>
-  <si>
-    <t>Thạch Thất</t>
-  </si>
-  <si>
-    <t>Quốc Oai</t>
+    <t>SITE_OOS_BY_POWER</t>
+  </si>
+  <si>
+    <t>06/05/2025 15:42:22</t>
+  </si>
+  <si>
+    <t>06/05/2025 15:37:25</t>
+  </si>
+  <si>
+    <t>06/05/2025 14:30:14</t>
+  </si>
+  <si>
+    <t>06/05/2025 13:42:12</t>
+  </si>
+  <si>
+    <t>06/05/2025 13:41:56</t>
+  </si>
+  <si>
+    <t>06/05/2025 13:41:51</t>
+  </si>
+  <si>
+    <t>06/05/2025 06:18:28</t>
   </si>
   <si>
     <t>Ba Vì</t>
   </si>
   <si>
-    <t>Trạm smc mất điện - 1 - sonnn - 17/04/2025 07:02:36</t>
+    <t>Đan Phượng</t>
+  </si>
+  <si>
+    <t>184205 - VTHN TĐML - HNI dựng lại côt thay cáp - 4 - thainh1 - 06/05/2025 13:56:39</t>
+  </si>
+  <si>
+    <t>184205 - VTHN TĐML - HNI dựng lại côt thay cáp - 4 - thainh1 - 06/05/2025 13:56:40</t>
+  </si>
+  <si>
+    <t>Mất nguồn AC - 1 - huongvl1 - 06/05/2025 10:23:32</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 1</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 3</t>
   </si>
   <si>
     <t>Trạm viễn thông loại 2</t>
-  </si>
-  <si>
-    <t>Trạm viễn thông loại 3</t>
-  </si>
-  <si>
-    <t>Trạm viễn thông loại 1</t>
   </si>
 </sst>
 </file>
@@ -521,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,10 +563,10 @@
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
@@ -547,7 +577,7 @@
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="53.7109375" customWidth="1"/>
+    <col min="22" max="22" width="84.7109375" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" customWidth="1"/>
     <col min="24" max="24" width="9.7109375" customWidth="1"/>
     <col min="25" max="25" width="12.7109375" customWidth="1"/>
@@ -656,16 +686,16 @@
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -675,7 +705,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -684,7 +714,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -699,16 +729,16 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -718,18 +748,16 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -744,16 +772,16 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -763,7 +791,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -772,10 +800,190 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fms_data.xlsx
+++ b/fms_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -103,88 +103,40 @@
     <t>TG Tạo Trên FM</t>
   </si>
   <si>
-    <t>SR_BVI027M_HNI</t>
-  </si>
-  <si>
-    <t>UL_BVI133M_HNI</t>
-  </si>
-  <si>
-    <t>UL_DPG058M_HNI</t>
-  </si>
-  <si>
-    <t>2G_BVI010M_HNI</t>
-  </si>
-  <si>
-    <t>3G_BVI010M_HNI</t>
-  </si>
-  <si>
-    <t>4G-BVI010M-HNI</t>
-  </si>
-  <si>
-    <t>SR_BVI010M_HNI</t>
-  </si>
-  <si>
-    <t>Thon-Lien-Tong-BVI_HNI</t>
-  </si>
-  <si>
-    <t>TONG-BAT-THON-TONG-LENH-BVI_HNI</t>
-  </si>
-  <si>
-    <t>KCN-CAU-GAO-DPG_HNI</t>
-  </si>
-  <si>
-    <t>Cam-Thuong-Thon-Van-Minh-BVI_HNI</t>
+    <t>UL_TTT093M_HNI</t>
+  </si>
+  <si>
+    <t>3G_DPG045S_HNI</t>
+  </si>
+  <si>
+    <t>THACH-HOA-TTT_HNI</t>
+  </si>
+  <si>
+    <t>TRUNG-CHAU-VAN-MON2-11-SMC-DPG_HNI</t>
   </si>
   <si>
     <t>POWER_AC_EAS</t>
   </si>
   <si>
-    <t>SITE_OOS_BY_POWER</t>
-  </si>
-  <si>
-    <t>06/05/2025 15:42:22</t>
-  </si>
-  <si>
-    <t>06/05/2025 15:37:25</t>
-  </si>
-  <si>
-    <t>06/05/2025 14:30:14</t>
-  </si>
-  <si>
-    <t>06/05/2025 13:42:12</t>
-  </si>
-  <si>
-    <t>06/05/2025 13:41:56</t>
-  </si>
-  <si>
-    <t>06/05/2025 13:41:51</t>
-  </si>
-  <si>
-    <t>06/05/2025 06:18:28</t>
-  </si>
-  <si>
-    <t>Ba Vì</t>
+    <t>SITE_OOS</t>
+  </si>
+  <si>
+    <t>07/05/2025 13:18:36</t>
+  </si>
+  <si>
+    <t>06/05/2025 23:18:18</t>
+  </si>
+  <si>
+    <t>Thạch Thất</t>
   </si>
   <si>
     <t>Đan Phượng</t>
   </si>
   <si>
-    <t>184205 - VTHN TĐML - HNI dựng lại côt thay cáp - 4 - thainh1 - 06/05/2025 13:56:39</t>
-  </si>
-  <si>
-    <t>184205 - VTHN TĐML - HNI dựng lại côt thay cáp - 4 - thainh1 - 06/05/2025 13:56:40</t>
-  </si>
-  <si>
-    <t>Mất nguồn AC - 1 - huongvl1 - 06/05/2025 10:23:32</t>
-  </si>
-  <si>
-    <t>Trạm viễn thông loại 1</t>
+    <t>Trạm smc mất điện - 1 - sonnn - 06/05/2025 23:24:34</t>
   </si>
   <si>
     <t>Trạm viễn thông loại 3</t>
-  </si>
-  <si>
-    <t>Trạm viễn thông loại 2</t>
   </si>
 </sst>
 </file>
@@ -551,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,10 +515,10 @@
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
@@ -577,7 +529,7 @@
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="84.7109375" customWidth="1"/>
+    <col min="22" max="22" width="53.7109375" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" customWidth="1"/>
     <col min="24" max="24" width="9.7109375" customWidth="1"/>
     <col min="25" max="25" width="12.7109375" customWidth="1"/>
@@ -686,16 +638,16 @@
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -705,7 +657,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -714,7 +666,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -729,16 +681,16 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -748,242 +700,21 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fms_data.xlsx
+++ b/fms_data.xlsx
@@ -121,7 +121,7 @@
     <t>SITE_OOS</t>
   </si>
   <si>
-    <t>07/05/2025 13:18:36</t>
+    <t>07/05/2025 14:13:49</t>
   </si>
   <si>
     <t>06/05/2025 23:18:18</t>

--- a/fms_data.xlsx
+++ b/fms_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>STT</t>
   </si>
@@ -103,16 +103,25 @@
     <t>TG Tạo Trên FM</t>
   </si>
   <si>
+    <t>SR_PTO016M_HNI</t>
+  </si>
+  <si>
     <t>UL_TTT093M_HNI</t>
   </si>
   <si>
-    <t>3G_DPG045S_HNI</t>
+    <t>4G-STY003M-HNI</t>
+  </si>
+  <si>
+    <t>3G_STY003M_HNI</t>
+  </si>
+  <si>
+    <t>Tam-Hiep-Thon-Thuong-PTO_HNI</t>
   </si>
   <si>
     <t>THACH-HOA-TTT_HNI</t>
   </si>
   <si>
-    <t>TRUNG-CHAU-VAN-MON2-11-SMC-DPG_HNI</t>
+    <t>Lang-Van-Hoa-STY_HNI</t>
   </si>
   <si>
     <t>POWER_AC_EAS</t>
@@ -121,22 +130,40 @@
     <t>SITE_OOS</t>
   </si>
   <si>
-    <t>07/05/2025 14:13:49</t>
-  </si>
-  <si>
-    <t>06/05/2025 23:18:18</t>
+    <t>09/05/2025 14:07:23</t>
+  </si>
+  <si>
+    <t>09/05/2025 12:39:56</t>
+  </si>
+  <si>
+    <t>08/05/2025 08:56:47</t>
+  </si>
+  <si>
+    <t>08/05/2025 08:10:05</t>
+  </si>
+  <si>
+    <t>Phúc Thọ</t>
   </si>
   <si>
     <t>Thạch Thất</t>
   </si>
   <si>
-    <t>Đan Phượng</t>
-  </si>
-  <si>
-    <t>Trạm smc mất điện - 1 - sonnn - 06/05/2025 23:24:34</t>
+    <t>Sơn Tây</t>
+  </si>
+  <si>
+    <t>184602- VTHN ĐKTĐ - Thay cột treo anten trạm , dự kiến từ 08h00 ngày 07/05 đến ngày 12/05 - 4 - hanhhh - 08/05/2025 09:17:21</t>
+  </si>
+  <si>
+    <t>184602- VTHN ĐKTĐ - Thay cột treo anten trạm , dự kiến từ 08h00 ngày 07/05 đến ngày 12/05  - 1 - hanhhh - 08/05/2025 08:54:42</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 2</t>
   </si>
   <si>
     <t>Trạm viễn thông loại 3</t>
+  </si>
+  <si>
+    <t>Trạm viễn thông loại 1</t>
   </si>
 </sst>
 </file>
@@ -503,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,7 +542,7 @@
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
@@ -529,7 +556,7 @@
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="53.7109375" customWidth="1"/>
+    <col min="22" max="22" width="127.7109375" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" customWidth="1"/>
     <col min="24" max="24" width="9.7109375" customWidth="1"/>
     <col min="25" max="25" width="12.7109375" customWidth="1"/>
@@ -638,16 +665,16 @@
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -657,7 +684,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -666,7 +693,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -681,16 +708,16 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -700,21 +727,109 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
